--- a/DATA_goal/Junction_Flooding_131.xlsx
+++ b/DATA_goal/Junction_Flooding_131.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41563.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.85</v>
+        <v>2.19</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.25</v>
+        <v>2.22</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>115.06</v>
+        <v>11.51</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.14</v>
+        <v>2.21</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.71</v>
+        <v>1.97</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41563.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.78</v>
+        <v>2.38</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.64</v>
+        <v>1.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>52.16</v>
+        <v>5.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.9</v>
+        <v>4.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>69.14</v>
+        <v>6.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.03</v>
+        <v>2.9</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.55</v>
+        <v>1.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.95</v>
+        <v>2.1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.26</v>
+        <v>2.23</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.52</v>
+        <v>2.65</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.81</v>
+        <v>27.88</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.52</v>
+        <v>5.25</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.01</v>
+        <v>3.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.3</v>
+        <v>3.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.02</v>
+        <v>2.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>63.01</v>
+        <v>6.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.69</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41563.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.36</v>
+        <v>2.34</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.17</v>
+        <v>5.12</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.47</v>
+        <v>4.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.35</v>
+        <v>1.84</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>72.44</v>
+        <v>7.24</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.45</v>
+        <v>2.85</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.55</v>
+        <v>2.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.83</v>
+        <v>2.18</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.65</v>
+        <v>1.56</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>273.1</v>
+        <v>27.31</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>51.54</v>
+        <v>5.15</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.52</v>
+        <v>3.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.72</v>
+        <v>3.57</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.59</v>
+        <v>2.16</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>65.88</v>
+        <v>6.59</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41563.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.58</v>
+        <v>0.46</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.15</v>
+        <v>0.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41563.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.5</v>
+        <v>2.15</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>47.02</v>
+        <v>4.7</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>38.36</v>
+        <v>3.84</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>61.55</v>
+        <v>6.15</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26.13</v>
+        <v>2.61</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>24.01</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>250.18</v>
+        <v>25.02</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>47.18</v>
+        <v>4.72</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.72</v>
+        <v>3.17</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>30.81</v>
+        <v>3.08</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>55.57</v>
+        <v>5.56</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41563.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>41.17</v>
+        <v>4.12</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.61</v>
+        <v>3.36</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>58.68</v>
+        <v>5.87</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.88</v>
+        <v>2.29</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.55</v>
+        <v>1.76</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.06</v>
+        <v>2.11</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>218.16</v>
+        <v>21.82</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>41.46</v>
+        <v>4.15</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.88</v>
+        <v>2.79</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>28.74</v>
+        <v>2.87</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>53.36</v>
+        <v>5.34</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41563.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>43.89</v>
+        <v>4.39</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>35.92</v>
+        <v>3.59</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>62.09</v>
+        <v>6.21</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.39</v>
+        <v>2.44</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.47</v>
+        <v>2.25</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>233.03</v>
+        <v>23.3</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>44.17</v>
+        <v>4.42</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>29.75</v>
+        <v>2.97</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>30.37</v>
+        <v>3.04</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>56.37</v>
+        <v>5.64</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41563.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>28.21</v>
+        <v>2.82</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>42.16</v>
+        <v>4.22</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>15.67</v>
+        <v>1.57</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>147.19</v>
+        <v>14.72</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>28.46</v>
+        <v>2.85</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>20.34</v>
+        <v>2.03</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>38.36</v>
+        <v>3.84</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41563.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>42.01</v>
+        <v>4.2</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>34.45</v>
+        <v>3.44</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>58.19</v>
+        <v>5.82</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>23.35</v>
+        <v>2.34</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>222.73</v>
+        <v>22.27</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>42.24</v>
+        <v>4.22</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>28.48</v>
+        <v>2.85</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>28.6</v>
+        <v>2.86</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>52.75</v>
+        <v>5.28</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_131.xlsx
+++ b/DATA_goal/Junction_Flooding_131.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41563.34027777778</v>
+        <v>44812.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.68</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.58</v>
+        <v>0.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.63</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.22</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.12</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.51</v>
+        <v>2.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.21</v>
+        <v>0.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.28</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.66</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.3</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.97</v>
+        <v>0.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41563.34722222222</v>
+        <v>44812.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.38</v>
+        <v>1.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.76</v>
+        <v>0.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.22</v>
+        <v>2.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.19</v>
+        <v>1.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.91</v>
+        <v>2.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.9</v>
+        <v>1.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.48</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.85</v>
+        <v>0.72</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.1</v>
+        <v>0.84</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.23</v>
+        <v>1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.24</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>0.68</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.65</v>
+        <v>1.06</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.88</v>
+        <v>10.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.25</v>
+        <v>2.08</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.5</v>
+        <v>1.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.78</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.53</v>
+        <v>1.2</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.61</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.48</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.65</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.3</v>
+        <v>2.09</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.37</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41563.35416666666</v>
+        <v>44812.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.12</v>
+        <v>4.33</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.15</v>
+        <v>3.51</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.51</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.24</v>
+        <v>5.74</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.49</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.61</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.31</v>
+        <v>22.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.15</v>
+        <v>4.3</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.57</v>
+        <v>2.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.16</v>
+        <v>1.82</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.59</v>
+        <v>5.14</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41563.36111111111</v>
+        <v>44812.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.46</v>
+        <v>3.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.51</v>
+        <v>5.54</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.55</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.69</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.44</v>
+        <v>4.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41563.36805555555</v>
+        <v>44812.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.15</v>
+        <v>14.36</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.61</v>
+        <v>10.55</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.64</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.7</v>
+        <v>30.58</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.84</v>
+        <v>24.91</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.69</v>
+        <v>10.7</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.15</v>
+        <v>44.5</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.61</v>
+        <v>16.69</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.18</v>
+        <v>7.39</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.71</v>
+        <v>11.08</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.89</v>
+        <v>12.16</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2</v>
+        <v>13.29</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.53</v>
+        <v>3.5</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.69</v>
+        <v>10.56</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.4</v>
+        <v>15.59</v>
       </c>
       <c r="Q6" s="4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>1.43</v>
       </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="Z6" s="4" t="n">
-        <v>3.08</v>
+        <v>21.16</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.38</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.22</v>
+        <v>7.58</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.44</v>
+        <v>9.26</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.98</v>
+        <v>12.88</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.56</v>
+        <v>39.95</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.88</v>
+        <v>5.61</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41563.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41563.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41563.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41563.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>22.27</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41563.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>21.92</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>5.55</v>
+        <v>12.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_131.xlsx
+++ b/DATA_goal/Junction_Flooding_131.xlsx
@@ -448,29 +448,29 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44812.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44812.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.47</v>
+        <v>24.65</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.25</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.75</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.67</v>
+        <v>106.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.3</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.86</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44812.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.33</v>
+        <v>43.31</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.51</v>
+        <v>35.14</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.07</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.74</v>
+        <v>57.39</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.51</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.19</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.87</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.2</v>
+        <v>21.99</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.7</v>
+        <v>227.05</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.3</v>
+        <v>43.02</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.49</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.93</v>
+        <v>29.33</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.53</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.18</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.55</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.65</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.14</v>
+        <v>51.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44812.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.9</v>
+        <v>39.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.18</v>
+        <v>31.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.54</v>
+        <v>55.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>20.42</v>
+        <v>204.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.89</v>
+        <v>38.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.65</v>
+        <v>26.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.66</v>
+        <v>26.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.98</v>
+        <v>49.79</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_131.xlsx
+++ b/DATA_goal/Junction_Flooding_131.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44812.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44812.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.809</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.29</v>
+        <v>7.292</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.6</v>
+        <v>21.604</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.79</v>
+        <v>16.795</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.91</v>
+        <v>6.909</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.65</v>
+        <v>24.651</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.084</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.81</v>
+        <v>4.805</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.25</v>
+        <v>7.246</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.371</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.03</v>
+        <v>10.029</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.41</v>
+        <v>2.406</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.75</v>
+        <v>6.752</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.59</v>
+        <v>10.588</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.11</v>
+        <v>6.109</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.673</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.142</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>106.67</v>
+        <v>106.674</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.78</v>
+        <v>20.778</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.38</v>
+        <v>7.378</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.3</v>
+        <v>14.304</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.77</v>
+        <v>7.773</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.977</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.02</v>
+        <v>12.018</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.09</v>
+        <v>6.095</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.83</v>
+        <v>4.825</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.45</v>
+        <v>6.452</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>9.050000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.86</v>
+        <v>20.858</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.65</v>
+        <v>3.651</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.32</v>
+        <v>8.319000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44812.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.45</v>
+        <v>20.446</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.974</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.31</v>
+        <v>43.308</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.14</v>
+        <v>35.145</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.07</v>
+        <v>15.065</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.39</v>
+        <v>57.394</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.51</v>
+        <v>23.515</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.409</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.62</v>
+        <v>15.622</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.19</v>
+        <v>17.189</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.92</v>
+        <v>18.921</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.87</v>
+        <v>14.873</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>21.99</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.71</v>
+        <v>12.707</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>227.05</v>
+        <v>227.046</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>43.02</v>
+        <v>43.021</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.49</v>
+        <v>14.492</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.33</v>
+        <v>29.326</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.53</v>
+        <v>15.534</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.02</v>
+        <v>2.017</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.18</v>
+        <v>28.185</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.55</v>
+        <v>12.553</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.65</v>
+        <v>10.651</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.08</v>
+        <v>13.079</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.24</v>
+        <v>18.235</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>51.37</v>
+        <v>51.373</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.91</v>
+        <v>7.906</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.56</v>
+        <v>17.556</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44812.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.49</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.53</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_131.xlsx
+++ b/DATA_goal/Junction_Flooding_131.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,40 +970,40 @@
         <v>18.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.45</v>
+        <v>13.445</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>39.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.77</v>
+        <v>31.773</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.66</v>
+        <v>13.662</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.42</v>
+        <v>55.422</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.29</v>
+        <v>21.286</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.44</v>
+        <v>9.435</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>14.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.51</v>
+        <v>15.514</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>16.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.468</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>13.49</v>
@@ -1012,37 +1012,37 @@
         <v>19.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.49</v>
+        <v>11.485</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.24</v>
+        <v>204.237</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.91</v>
+        <v>38.913</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.03</v>
+        <v>13.029</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.5</v>
+        <v>26.504</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.99</v>
+        <v>13.993</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.82</v>
+        <v>1.822</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.6</v>
+        <v>26.604</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.33</v>
+        <v>11.334</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.67</v>
@@ -1054,16 +1054,120 @@
         <v>16.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.79</v>
+        <v>49.791</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.16</v>
+        <v>7.165</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.88</v>
+        <v>15.881</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44812.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_131.xlsx
+++ b/DATA_goal/Junction_Flooding_131.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,40 +970,40 @@
         <v>18.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.445</v>
+        <v>13.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>39.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.773</v>
+        <v>31.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.662</v>
+        <v>13.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.422</v>
+        <v>55.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.286</v>
+        <v>21.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.435</v>
+        <v>9.44</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>14.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.514</v>
+        <v>15.51</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>16.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.468</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>13.49</v>
@@ -1012,37 +1012,37 @@
         <v>19.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.485</v>
+        <v>11.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.453</v>
+        <v>0.45</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.417</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.237</v>
+        <v>204.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.913</v>
+        <v>38.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.029</v>
+        <v>13.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.504</v>
+        <v>26.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.993</v>
+        <v>13.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.822</v>
+        <v>1.82</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.604</v>
+        <v>26.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.334</v>
+        <v>11.33</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>9.67</v>
@@ -1054,120 +1054,16 @@
         <v>16.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.791</v>
+        <v>49.79</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.165</v>
+        <v>7.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.881</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44812.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.49</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.53</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.45</v>
+        <v>15.88</v>
       </c>
     </row>
   </sheetData>
